--- a/VLSM.xlsx
+++ b/VLSM.xlsx
@@ -11,36 +11,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
-  <si>
-    <t>Nama Subnet (Lokasi)</t>
-  </si>
-  <si>
-    <t>Kebutuhan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+  <si>
+    <t>Nama Subnet (Label)</t>
+  </si>
+  <si>
+    <t>Peruntukan (Lokasi)</t>
   </si>
   <si>
     <t>Network ID</t>
   </si>
   <si>
-    <t>Netmask (CIDR)</t>
-  </si>
-  <si>
-    <t>Range IP Host</t>
-  </si>
-  <si>
-    <t>Gateway (Router)</t>
-  </si>
-  <si>
-    <t>A (Switch4 - Elendil/Isildur)</t>
-  </si>
-  <si>
-    <t>231 Host</t>
+    <t>CIDR</t>
+  </si>
+  <si>
+    <t>Netmask</t>
+  </si>
+  <si>
+    <t>Range IP Host (Usable)</t>
+  </si>
+  <si>
+    <t>Broadcast IP</t>
+  </si>
+  <si>
+    <t>Gateway (Router IP)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Switch4 (Elendil, Isildur)</t>
   </si>
   <si>
     <t>192.236.0.0</t>
   </si>
   <si>
-    <t>/24 (255.255.255.0)</t>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
   </si>
   <si>
     <t>.2 - .254</t>
@@ -49,16 +58,19 @@
     <t>192.236.0.1</t>
   </si>
   <si>
-    <t>B (Switch5 - Gilgalad/Cirdan)</t>
-  </si>
-  <si>
-    <t>121 Host</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Switch5 (Gilgalad, Cirdan)</t>
   </si>
   <si>
     <t>192.236.1.0</t>
   </si>
   <si>
-    <t>/25 (255.255.255.128)</t>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
   </si>
   <si>
     <t>.2 - .126</t>
@@ -67,16 +79,19 @@
     <t>192.236.1.1</t>
   </si>
   <si>
-    <t>C (Switch3 - Durin/Khamul)</t>
-  </si>
-  <si>
-    <t>56 Host</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Switch3 (Durin, Khamul)</t>
   </si>
   <si>
     <t>192.236.1.128</t>
   </si>
   <si>
-    <t>/26 (255.255.255.192)</t>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
   </si>
   <si>
     <t>.130 - .190</t>
@@ -85,16 +100,19 @@
     <t>192.236.1.129</t>
   </si>
   <si>
-    <t>D (Switch1 - Vilya/Narya)</t>
-  </si>
-  <si>
-    <t>3 Host</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Switch1 (Vilya, Narya)</t>
   </si>
   <si>
     <t>192.236.1.192</t>
   </si>
   <si>
-    <t>/29 (255.255.255.248)</t>
+    <t>/29</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
   </si>
   <si>
     <t>.194 - .198</t>
@@ -103,55 +121,73 @@
     <t>192.236.1.193</t>
   </si>
   <si>
-    <t>E (Switch2 - IronHills)</t>
-  </si>
-  <si>
-    <t>2 Host</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Switch2 (IronHills)</t>
   </si>
   <si>
     <t>192.236.1.200</t>
   </si>
   <si>
-    <t>.202 - .206</t>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>.202 (IronHills)</t>
   </si>
   <si>
     <t>192.236.1.201</t>
   </si>
   <si>
-    <t>F (Pelargir - Palantir)</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Pelargir Direct (Palantir)</t>
+  </si>
+  <si>
+    <t>192.236.1.204</t>
+  </si>
+  <si>
+    <t>.206 (Palantir)</t>
+  </si>
+  <si>
+    <t>192.236.1.205</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Link Osgiliath ↔ Minastir</t>
   </si>
   <si>
     <t>192.236.1.208</t>
   </si>
   <si>
-    <t>/30 (255.255.255.252)</t>
-  </si>
-  <si>
-    <t>.210 (Palantir)</t>
-  </si>
-  <si>
-    <t>192.236.1.209</t>
-  </si>
-  <si>
-    <t>A1 (Osgiliath - Minastir)</t>
-  </si>
-  <si>
-    <t>Link</t>
+    <t>.209 - .210</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Link Minastir ↔ Pelargir</t>
   </si>
   <si>
     <t>192.236.1.212</t>
   </si>
   <si>
-    <t>/30</t>
-  </si>
-  <si>
     <t>.213 - .214</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>A2 (Minastir - Pelargir)</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Link Pelargir ↔ AnduinBanks</t>
   </si>
   <si>
     <t>192.236.1.216</t>
@@ -160,7 +196,10 @@
     <t>.217 - .218</t>
   </si>
   <si>
-    <t>A3 (Pelargir - AnduinBanks)</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Link Osgiliath ↔ Moria</t>
   </si>
   <si>
     <t>192.236.1.220</t>
@@ -169,7 +208,10 @@
     <t>.221 - .222</t>
   </si>
   <si>
-    <t>A4 (Osgiliath - Moria)</t>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Link Moria ↔ Wilderland</t>
   </si>
   <si>
     <t>192.236.1.224</t>
@@ -178,29 +220,23 @@
     <t>.225 - .226</t>
   </si>
   <si>
-    <t>A5 (Moria - Wilderland)</t>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Link Osgiliath ↔ Rivendell</t>
   </si>
   <si>
     <t>192.236.1.228</t>
   </si>
   <si>
     <t>.229 - .230</t>
-  </si>
-  <si>
-    <t>A6 (Osgiliath - Rivendell)</t>
-  </si>
-  <si>
-    <t>192.236.1.232</t>
-  </si>
-  <si>
-    <t>.233 - .234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -208,9 +244,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans Text&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF444746"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,11 +271,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -450,12 +500,19 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.5"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
+    <col customWidth="1" min="1" max="2" width="22.5"/>
     <col customWidth="1" min="3" max="3" width="11.63"/>
     <col customWidth="1" min="4" max="4" width="17.38"/>
     <col customWidth="1" min="5" max="5" width="11.88"/>
-    <col customWidth="1" min="6" max="6" width="14.13"/>
+    <col customWidth="1" min="6" max="6" width="18.38"/>
+    <col customWidth="1" min="7" max="7" width="10.63"/>
+    <col customWidth="1" min="8" max="8" width="16.0"/>
+    <col customWidth="1" min="9" max="9" width="22.5"/>
+    <col customWidth="1" min="10" max="10" width="11.25"/>
+    <col customWidth="1" min="11" max="11" width="4.75"/>
+    <col customWidth="1" min="13" max="13" width="18.38"/>
+    <col customWidth="1" min="14" max="14" width="10.63"/>
+    <col customWidth="1" min="15" max="15" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,245 +534,323 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.199</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.203</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.207</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.211</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
+      <c r="A9" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
+      <c r="A10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
+      <c r="A12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.227</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
+      <c r="A13" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.231</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
